--- a/src/test/resources/テスト観点.xlsx
+++ b/src/test/resources/テスト観点.xlsx
@@ -8,27 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\env\workspace\regist_user\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0670EE3F-F802-405E-A017-7367EE92B0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B7224A-4776-4E7A-B50B-37D719E4C57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メールアドレス登録" sheetId="1" r:id="rId1"/>
+    <sheet name="ユーザー登録" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>No</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>観点大</t>
   </si>
@@ -312,6 +318,343 @@
     </rPh>
     <rPh sb="24" eb="26">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メールのURLをクリックしてユーザ登録画面に遷移できる</t>
+    <rPh sb="17" eb="21">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力値チェック</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>情報登録をしたのちに、
+会員登録完了画面に遷移</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウホウトウロク</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>カイイントウロク</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>カンリョウガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>名前を空欄にして
+登録ボタンを押す</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>名前を入れてくださいと表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ふりがなを空欄にして登録ボタンを押す</t>
+    <rPh sb="5" eb="7">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ふりがなを入れてくださいと表示される</t>
+    <rPh sb="5" eb="6">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>郵便番号を空欄にして登録ボタンを押す</t>
+  </si>
+  <si>
+    <t>郵便番号の形式を無視する</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ムシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>郵便番号形式にしてくださいと表示される</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>郵便番号形式にして
+くださいと表示される</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>携帯電話番号を空欄</t>
+    <rPh sb="0" eb="4">
+      <t>ケイタイデンワ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>クウラン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>携帯電話の形式を無視</t>
+    <rPh sb="0" eb="4">
+      <t>ケイタイデンワ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ムシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>携帯電話番号形式にしてくださいと表示される</t>
+    <rPh sb="0" eb="6">
+      <t>ケイタイデンワバンゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>携帯電話番号形式にしてくださいと表示される</t>
+    <rPh sb="0" eb="8">
+      <t>ケイタイデンワバンゴウケイシキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>住所を空欄にして登録ボタンを押す</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>住所を入力してくださいと表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワードを空欄にして登録ボタンを押す</t>
+    <rPh sb="6" eb="8">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワードは8文字以上100文字以内で入力してくださいと表示される</t>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワードは8文字以上100文字以内で入力してくださいと表示される</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>確認用パスワードとパスワードで違う値を入力する</t>
+    <rPh sb="0" eb="3">
+      <t>カクニンヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワードが一致しませんと表示される</t>
+    <rPh sb="6" eb="8">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワード、確認用パスワードを７文字で登録</t>
+    <rPh sb="6" eb="9">
+      <t>カクニンヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワード、確認用パスワードを101文字で登録</t>
+    <rPh sb="6" eb="9">
+      <t>カクニンヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>一度登録した後、もう一度URLをクリックして登録ができないか</t>
+    <rPh sb="0" eb="4">
+      <t>イチドトウロク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>登録後に
+同じメールのURLをクリックして、
+登録を行おうとする</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>このURLは既に登録済みですと表示される</t>
+    <rPh sb="6" eb="7">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>トウロクズ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>×
+登録できてしまった。</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -420,7 +763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -438,6 +781,9 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -722,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -741,35 +1087,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.5" thickBot="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1" t="e">
+        <f>A1:J1No</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="K1" s="3"/>
     </row>
@@ -778,10 +1125,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="5"/>
@@ -793,7 +1140,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="5"/>
@@ -805,7 +1152,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="5"/>
@@ -817,7 +1164,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="5"/>
@@ -829,7 +1176,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="5"/>
@@ -841,19 +1188,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="5"/>
@@ -865,13 +1212,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
         <v>21</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="5"/>
@@ -883,13 +1230,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="G9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="5"/>
@@ -901,13 +1248,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="G10" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="5"/>
@@ -1138,6 +1485,220 @@
       <c r="I35" s="5"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E3B1B6-EE32-4FC2-A8C2-2F5F4625E82C}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="4" max="4" width="19.4140625" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="16.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="29.5" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="54">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="72">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="72">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="54">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="54">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="72">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="54">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="54">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="54">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="72">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="72">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="72">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="54">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="108">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
